--- a/Bases de donnees/voitures.xlsx
+++ b/Bases de donnees/voitures.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\59011-95-09\Bases de donnees\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\exercices\DWWM2020-Bruno\Bases de donnees\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0602DFE0-137F-46CF-B17C-B96B6D7D60D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="418">
   <si>
     <t>marque</t>
   </si>
@@ -1275,12 +1285,15 @@
   </si>
   <si>
     <t>idmarque</t>
+  </si>
+  <si>
+    <t>insert into marque (libelleMarque) Values(""&amp;H3&amp;"");</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2089,11 +2102,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J427"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="D374" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2103,7 +2116,8 @@
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="18.140625" style="8" customWidth="1"/>
     <col min="5" max="5" width="78.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="77.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="1"/>
     <col min="10" max="10" width="31.28515625" customWidth="1"/>
   </cols>
@@ -2139,7 +2153,9 @@
         <f>IF(E2="","","insert into modele (libelleModele,idmarque) Values ("""&amp;B2&amp;""","&amp;E2&amp;");")</f>
         <v>insert into modele (libelleModele,idmarque) Values ("",=SI(ESTNA(RECHERCHEV(C2;G:H;2;0));"";RECHERCHEV(C2;G:H;2;0)));</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -2155,10 +2171,7 @@
         <f>VLOOKUP(C3,H:I,2,0)</f>
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="str">
-        <f>"INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"""&amp;B3&amp;""""&amp;D3&amp;");"</f>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"159"1);</v>
-      </c>
+      <c r="E3" s="8"/>
       <c r="F3" s="9"/>
       <c r="H3" s="8" t="s">
         <v>1</v>
@@ -2166,7 +2179,10 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="9" t="str">
+        <f>"INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"""&amp;H3&amp;""");"</f>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"ALFA ROMEO ");</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -2183,8 +2199,8 @@
         <v>1</v>
       </c>
       <c r="E4" s="8" t="str">
-        <f t="shared" ref="E4:E67" si="1">"INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"""&amp;B4&amp;""""&amp;D4&amp;");"</f>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"147"1);</v>
+        <f>"INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"""&amp;B4&amp;""","&amp;D4&amp;");"</f>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"147",1);</v>
       </c>
       <c r="F4" s="9"/>
       <c r="H4" s="1" t="s">
@@ -2193,7 +2209,10 @@
       <c r="I4" s="1">
         <v>2</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="9" t="str">
+        <f t="shared" ref="J4:J45" si="1">"INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"""&amp;H4&amp;""");"</f>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"AUDI ");</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -2210,8 +2229,8 @@
         <v>1</v>
       </c>
       <c r="E5" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"8C "1);</v>
+        <f t="shared" ref="E5:E68" si="2">"INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"""&amp;B5&amp;""","&amp;D5&amp;");"</f>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"8C ",1);</v>
       </c>
       <c r="F5" s="9"/>
       <c r="H5" s="1" t="s">
@@ -2220,7 +2239,10 @@
       <c r="I5" s="1">
         <v>3</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"BENTLEY ");</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -2237,8 +2259,8 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A5"1);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A5",1);</v>
       </c>
       <c r="F6" s="9"/>
       <c r="H6" s="1" t="s">
@@ -2247,7 +2269,10 @@
       <c r="I6" s="1">
         <v>4</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"BMW ");</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -2264,8 +2289,8 @@
         <v>1</v>
       </c>
       <c r="E7" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GIULIETTA "1);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GIULIETTA ",1);</v>
       </c>
       <c r="F7" s="9"/>
       <c r="H7" s="1" t="s">
@@ -2274,7 +2299,10 @@
       <c r="I7" s="1">
         <v>5</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"CADILLAC ");</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -2291,8 +2319,8 @@
         <v>1</v>
       </c>
       <c r="E8" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MITO "1);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MITO ",1);</v>
       </c>
       <c r="F8" s="9"/>
       <c r="H8" s="1" t="s">
@@ -2301,7 +2329,10 @@
       <c r="I8" s="1">
         <v>6</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"CHEVROLET ");</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -2318,8 +2349,8 @@
         <v>1</v>
       </c>
       <c r="E9" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SPIDER "1);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SPIDER ",1);</v>
       </c>
       <c r="F9" s="9"/>
       <c r="H9" s="1" t="s">
@@ -2328,7 +2359,10 @@
       <c r="I9" s="1">
         <v>7</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"CITROEN ");</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -2345,8 +2379,8 @@
         <v>2</v>
       </c>
       <c r="E10" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A1 "2);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A1 ",2);</v>
       </c>
       <c r="F10" s="9"/>
       <c r="H10" s="1" t="s">
@@ -2355,7 +2389,10 @@
       <c r="I10" s="1">
         <v>8</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"DACIA ");</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -2372,8 +2409,8 @@
         <v>2</v>
       </c>
       <c r="E11" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A3 "2);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A3 ",2);</v>
       </c>
       <c r="F11" s="9"/>
       <c r="H11" s="1" t="s">
@@ -2382,7 +2419,10 @@
       <c r="I11" s="1">
         <v>9</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"FERRARI ");</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -2399,8 +2439,8 @@
         <v>2</v>
       </c>
       <c r="E12" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A4 "2);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A4 ",2);</v>
       </c>
       <c r="F12" s="9"/>
       <c r="H12" s="1" t="s">
@@ -2409,7 +2449,10 @@
       <c r="I12" s="1">
         <v>10</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"FIAT ");</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -2426,8 +2469,8 @@
         <v>2</v>
       </c>
       <c r="E13" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A5 "2);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A5 ",2);</v>
       </c>
       <c r="F13" s="9"/>
       <c r="H13" s="1" t="s">
@@ -2436,7 +2479,10 @@
       <c r="I13" s="1">
         <v>11</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"FORD ");</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -2453,8 +2499,8 @@
         <v>2</v>
       </c>
       <c r="E14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A6 "2);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A6 ",2);</v>
       </c>
       <c r="F14" s="9"/>
       <c r="H14" s="1" t="s">
@@ -2463,7 +2509,10 @@
       <c r="I14" s="1">
         <v>12</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"HONDA ");</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -2480,8 +2529,8 @@
         <v>2</v>
       </c>
       <c r="E15" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A7 "2);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A7 ",2);</v>
       </c>
       <c r="F15" s="9"/>
       <c r="H15" s="1" t="s">
@@ -2490,7 +2539,10 @@
       <c r="I15" s="1">
         <v>13</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J15" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"HYUNDAI ");</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -2507,8 +2559,8 @@
         <v>2</v>
       </c>
       <c r="E16" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A8 "2);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A8 ",2);</v>
       </c>
       <c r="F16" s="9"/>
       <c r="H16" s="1" t="s">
@@ -2517,7 +2569,10 @@
       <c r="I16" s="1">
         <v>14</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"INFINITI ");</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -2534,8 +2589,8 @@
         <v>2</v>
       </c>
       <c r="E17" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"Q3 "2);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"Q3 ",2);</v>
       </c>
       <c r="F17" s="9"/>
       <c r="H17" s="1" t="s">
@@ -2544,7 +2599,10 @@
       <c r="I17" s="1">
         <v>15</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J17" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"JAGUAR ");</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -2561,8 +2619,8 @@
         <v>2</v>
       </c>
       <c r="E18" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"Q5 "2);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"Q5 ",2);</v>
       </c>
       <c r="F18" s="9"/>
       <c r="H18" s="1" t="s">
@@ -2571,6 +2629,10 @@
       <c r="I18" s="1">
         <v>16</v>
       </c>
+      <c r="J18" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"JEEP ");</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -2587,8 +2649,8 @@
         <v>2</v>
       </c>
       <c r="E19" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"Q7 "2);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"Q7 ",2);</v>
       </c>
       <c r="F19" s="9"/>
       <c r="H19" s="1" t="s">
@@ -2597,6 +2659,10 @@
       <c r="I19" s="1">
         <v>17</v>
       </c>
+      <c r="J19" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"KIA ");</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -2613,8 +2679,8 @@
         <v>2</v>
       </c>
       <c r="E20" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"R8 "2);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"R8 ",2);</v>
       </c>
       <c r="F20" s="9"/>
       <c r="H20" s="1" t="s">
@@ -2623,6 +2689,10 @@
       <c r="I20" s="1">
         <v>18</v>
       </c>
+      <c r="J20" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"LADA ");</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -2639,8 +2709,8 @@
         <v>2</v>
       </c>
       <c r="E21" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"TT "2);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"TT ",2);</v>
       </c>
       <c r="F21" s="9"/>
       <c r="H21" s="1" t="s">
@@ -2649,6 +2719,10 @@
       <c r="I21" s="1">
         <v>19</v>
       </c>
+      <c r="J21" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"LAMBORGHINI ");</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -2665,8 +2739,8 @@
         <v>3</v>
       </c>
       <c r="E22" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CONTINENTAL "3);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CONTINENTAL ",3);</v>
       </c>
       <c r="F22" s="9"/>
       <c r="H22" s="1" t="s">
@@ -2675,6 +2749,10 @@
       <c r="I22" s="1">
         <v>20</v>
       </c>
+      <c r="J22" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"LANCIA ");</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -2691,8 +2769,8 @@
         <v>3</v>
       </c>
       <c r="E23" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"FLYING SPUR "3);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"FLYING SPUR ",3);</v>
       </c>
       <c r="F23" s="9"/>
       <c r="H23" s="1" t="s">
@@ -2701,6 +2779,10 @@
       <c r="I23" s="1">
         <v>21</v>
       </c>
+      <c r="J23" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"LAND ROVER ");</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -2717,8 +2799,8 @@
         <v>3</v>
       </c>
       <c r="E24" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MULSANNE "3);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MULSANNE ",3);</v>
       </c>
       <c r="F24" s="9"/>
       <c r="H24" s="1" t="s">
@@ -2727,6 +2809,10 @@
       <c r="I24" s="1">
         <v>22</v>
       </c>
+      <c r="J24" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"LEXUS ");</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -2743,8 +2829,8 @@
         <v>4</v>
       </c>
       <c r="E25" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"114"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"114",4);</v>
       </c>
       <c r="F25" s="9"/>
       <c r="H25" s="1" t="s">
@@ -2753,6 +2839,10 @@
       <c r="I25" s="1">
         <v>23</v>
       </c>
+      <c r="J25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"MASERATI ");</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -2769,14 +2859,18 @@
         <v>4</v>
       </c>
       <c r="E26" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"116"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"116",4);</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>178</v>
       </c>
       <c r="I26" s="1">
         <v>24</v>
+      </c>
+      <c r="J26" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"MAZDA ");</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2794,14 +2888,18 @@
         <v>4</v>
       </c>
       <c r="E27" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"118"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"118",4);</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>182</v>
       </c>
       <c r="I27" s="1">
         <v>25</v>
+      </c>
+      <c r="J27" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"MERCEDES ");</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2819,14 +2917,18 @@
         <v>4</v>
       </c>
       <c r="E28" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"120"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"120",4);</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>266</v>
       </c>
       <c r="I28" s="1">
         <v>26</v>
+      </c>
+      <c r="J28" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"MINI ");</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2844,14 +2946,18 @@
         <v>4</v>
       </c>
       <c r="E29" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"125"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"125",4);</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>272</v>
       </c>
       <c r="I29" s="1">
         <v>27</v>
+      </c>
+      <c r="J29" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"MITSUBISHI ");</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2869,14 +2975,18 @@
         <v>4</v>
       </c>
       <c r="E30" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"214"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"214",4);</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>278</v>
       </c>
       <c r="I30" s="1">
         <v>28</v>
+      </c>
+      <c r="J30" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"NISSAN ");</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2894,14 +3004,18 @@
         <v>4</v>
       </c>
       <c r="E31" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"216"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"216",4);</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>292</v>
       </c>
       <c r="I31" s="1">
         <v>29</v>
+      </c>
+      <c r="J31" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"OPEL ");</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2919,8 +3033,8 @@
         <v>4</v>
       </c>
       <c r="E32" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"218"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"218",4);</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>306</v>
@@ -2928,8 +3042,12 @@
       <c r="I32" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"PEUGEOT ");</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2944,8 +3062,8 @@
         <v>4</v>
       </c>
       <c r="E33" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"220"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"220",4);</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>313</v>
@@ -2953,8 +3071,12 @@
       <c r="I33" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"PORSCHE ");</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -2969,8 +3091,8 @@
         <v>4</v>
       </c>
       <c r="E34" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"225"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"225",4);</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>320</v>
@@ -2978,8 +3100,12 @@
       <c r="I34" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"RENAULT ");</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -2994,8 +3120,8 @@
         <v>4</v>
       </c>
       <c r="E35" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"228"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"228",4);</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>334</v>
@@ -3003,8 +3129,12 @@
       <c r="I35" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"ROLLS ROYCE ");</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -3019,8 +3149,8 @@
         <v>4</v>
       </c>
       <c r="E36" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"235"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"235",4);</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>338</v>
@@ -3028,8 +3158,12 @@
       <c r="I36" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"SEAT ");</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -3044,8 +3178,8 @@
         <v>4</v>
       </c>
       <c r="E37" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"316"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"316",4);</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>345</v>
@@ -3053,8 +3187,12 @@
       <c r="I37" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"SKODA ");</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -3069,8 +3207,8 @@
         <v>4</v>
       </c>
       <c r="E38" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"318"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"318",4);</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>353</v>
@@ -3078,8 +3216,12 @@
       <c r="I38" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"SMART ");</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -3094,8 +3236,8 @@
         <v>4</v>
       </c>
       <c r="E39" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"320"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"320",4);</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>356</v>
@@ -3103,8 +3245,12 @@
       <c r="I39" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"SSANGYONG ");</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -3119,8 +3265,8 @@
         <v>4</v>
       </c>
       <c r="E40" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"325"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"325",4);</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>360</v>
@@ -3128,8 +3274,12 @@
       <c r="I40" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"SUBARU ");</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -3144,8 +3294,8 @@
         <v>4</v>
       </c>
       <c r="E41" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"328"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"328",4);</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>365</v>
@@ -3153,8 +3303,12 @@
       <c r="I41" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"SUZUKI ");</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -3169,8 +3323,8 @@
         <v>4</v>
       </c>
       <c r="E42" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"330"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"330",4);</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>371</v>
@@ -3178,8 +3332,12 @@
       <c r="I42" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"TESLA ");</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -3194,8 +3352,8 @@
         <v>4</v>
       </c>
       <c r="E43" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"335"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"335",4);</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>373</v>
@@ -3203,8 +3361,12 @@
       <c r="I43" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"TOYOTA ");</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -3219,8 +3381,8 @@
         <v>4</v>
       </c>
       <c r="E44" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"418"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"418",4);</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>386</v>
@@ -3228,8 +3390,12 @@
       <c r="I44" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"VOLKSWAGEN ");</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -3244,8 +3410,8 @@
         <v>4</v>
       </c>
       <c r="E45" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"420"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"420",4);</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>403</v>
@@ -3253,8 +3419,12 @@
       <c r="I45" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO `marques`(`idMarque`, `libelleMarque`) VALUES (NULL,"VOLVO ");</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -3269,12 +3439,12 @@
         <v>4</v>
       </c>
       <c r="E46" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"425"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"425",4);</v>
       </c>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -3289,12 +3459,12 @@
         <v>4</v>
       </c>
       <c r="E47" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"428"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"428",4);</v>
       </c>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -3309,8 +3479,8 @@
         <v>4</v>
       </c>
       <c r="E48" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"430"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"430",4);</v>
       </c>
       <c r="H48"/>
     </row>
@@ -3329,8 +3499,8 @@
         <v>4</v>
       </c>
       <c r="E49" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"435"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"435",4);</v>
       </c>
       <c r="H49"/>
     </row>
@@ -3349,8 +3519,8 @@
         <v>4</v>
       </c>
       <c r="E50" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"518"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"518",4);</v>
       </c>
       <c r="H50"/>
     </row>
@@ -3369,8 +3539,8 @@
         <v>4</v>
       </c>
       <c r="E51" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"520"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"520",4);</v>
       </c>
       <c r="H51"/>
     </row>
@@ -3389,8 +3559,8 @@
         <v>4</v>
       </c>
       <c r="E52" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"525"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"525",4);</v>
       </c>
       <c r="H52"/>
     </row>
@@ -3409,8 +3579,8 @@
         <v>4</v>
       </c>
       <c r="E53" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"528"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"528",4);</v>
       </c>
       <c r="H53"/>
     </row>
@@ -3429,8 +3599,8 @@
         <v>4</v>
       </c>
       <c r="E54" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"530"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"530",4);</v>
       </c>
       <c r="H54"/>
     </row>
@@ -3449,8 +3619,8 @@
         <v>4</v>
       </c>
       <c r="E55" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"535"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"535",4);</v>
       </c>
       <c r="H55"/>
     </row>
@@ -3469,8 +3639,8 @@
         <v>4</v>
       </c>
       <c r="E56" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"550"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"550",4);</v>
       </c>
       <c r="H56"/>
     </row>
@@ -3489,8 +3659,8 @@
         <v>4</v>
       </c>
       <c r="E57" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"640"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"640",4);</v>
       </c>
       <c r="H57"/>
     </row>
@@ -3509,8 +3679,8 @@
         <v>4</v>
       </c>
       <c r="E58" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"650"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"650",4);</v>
       </c>
       <c r="H58"/>
     </row>
@@ -3529,8 +3699,8 @@
         <v>4</v>
       </c>
       <c r="E59" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"730"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"730",4);</v>
       </c>
       <c r="H59"/>
     </row>
@@ -3549,8 +3719,8 @@
         <v>4</v>
       </c>
       <c r="E60" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"740"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"740",4);</v>
       </c>
       <c r="H60"/>
     </row>
@@ -3569,8 +3739,8 @@
         <v>4</v>
       </c>
       <c r="E61" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"750"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"750",4);</v>
       </c>
       <c r="H61"/>
     </row>
@@ -3589,8 +3759,8 @@
         <v>4</v>
       </c>
       <c r="E62" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"760"4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"760",4);</v>
       </c>
       <c r="H62"/>
     </row>
@@ -3609,8 +3779,8 @@
         <v>4</v>
       </c>
       <c r="E63" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"I3 "4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"I3 ",4);</v>
       </c>
       <c r="H63"/>
     </row>
@@ -3629,8 +3799,8 @@
         <v>4</v>
       </c>
       <c r="E64" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"I8 "4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"I8 ",4);</v>
       </c>
       <c r="H64"/>
     </row>
@@ -3649,8 +3819,8 @@
         <v>4</v>
       </c>
       <c r="E65" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"M3 "4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"M3 ",4);</v>
       </c>
       <c r="H65"/>
     </row>
@@ -3669,8 +3839,8 @@
         <v>4</v>
       </c>
       <c r="E66" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"M4 "4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"M4 ",4);</v>
       </c>
       <c r="H66"/>
     </row>
@@ -3689,8 +3859,8 @@
         <v>4</v>
       </c>
       <c r="E67" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"M5 "4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"M5 ",4);</v>
       </c>
       <c r="H67"/>
     </row>
@@ -3705,12 +3875,12 @@
         <v>24</v>
       </c>
       <c r="D68" s="8">
-        <f t="shared" ref="D68:D131" si="2">VLOOKUP(C68,H:I,2,0)</f>
+        <f t="shared" ref="D68:D131" si="3">VLOOKUP(C68,H:I,2,0)</f>
         <v>4</v>
       </c>
       <c r="E68" s="8" t="str">
-        <f t="shared" ref="E68:E131" si="3">"INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"""&amp;B68&amp;""""&amp;D68&amp;");"</f>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SERIE 3 ACTIVEHYBRID "4);</v>
+        <f t="shared" si="2"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SERIE 3 ACTIVEHYBRID ",4);</v>
       </c>
       <c r="H68"/>
     </row>
@@ -3725,12 +3895,12 @@
         <v>24</v>
       </c>
       <c r="D69" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E69" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SERIE 5 ACTIVEHYBRID "4);</v>
+        <f t="shared" ref="E69:E132" si="4">"INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"""&amp;B69&amp;""","&amp;D69&amp;");"</f>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SERIE 5 ACTIVEHYBRID ",4);</v>
       </c>
       <c r="H69"/>
     </row>
@@ -3745,12 +3915,12 @@
         <v>24</v>
       </c>
       <c r="D70" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E70" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SERIE 7 ACTIVEHYBRID "4);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SERIE 7 ACTIVEHYBRID ",4);</v>
       </c>
       <c r="H70"/>
     </row>
@@ -3765,12 +3935,12 @@
         <v>24</v>
       </c>
       <c r="D71" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E71" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"X1 "4);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"X1 ",4);</v>
       </c>
       <c r="H71"/>
     </row>
@@ -3785,12 +3955,12 @@
         <v>24</v>
       </c>
       <c r="D72" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E72" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"X3 "4);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"X3 ",4);</v>
       </c>
       <c r="H72"/>
     </row>
@@ -3805,12 +3975,12 @@
         <v>24</v>
       </c>
       <c r="D73" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E73" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"X4 "4);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"X4 ",4);</v>
       </c>
       <c r="H73"/>
     </row>
@@ -3825,12 +3995,12 @@
         <v>24</v>
       </c>
       <c r="D74" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E74" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"X5 "4);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"X5 ",4);</v>
       </c>
       <c r="H74"/>
     </row>
@@ -3845,12 +4015,12 @@
         <v>24</v>
       </c>
       <c r="D75" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E75" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"X6 "4);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"X6 ",4);</v>
       </c>
       <c r="H75"/>
     </row>
@@ -3865,12 +4035,12 @@
         <v>24</v>
       </c>
       <c r="D76" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E76" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"Z4 "4);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"Z4 ",4);</v>
       </c>
       <c r="H76"/>
     </row>
@@ -3885,12 +4055,12 @@
         <v>40</v>
       </c>
       <c r="D77" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E77" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ATS "5);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ATS ",5);</v>
       </c>
       <c r="H77"/>
     </row>
@@ -3905,12 +4075,12 @@
         <v>40</v>
       </c>
       <c r="D78" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E78" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CTS "5);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CTS ",5);</v>
       </c>
       <c r="H78"/>
     </row>
@@ -3925,12 +4095,12 @@
         <v>40</v>
       </c>
       <c r="D79" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E79" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ESCALADE "5);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ESCALADE ",5);</v>
       </c>
       <c r="H79"/>
     </row>
@@ -3945,12 +4115,12 @@
         <v>40</v>
       </c>
       <c r="D80" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="E80" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SRX "5);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SRX ",5);</v>
       </c>
       <c r="H80"/>
     </row>
@@ -3965,12 +4135,12 @@
         <v>45</v>
       </c>
       <c r="D81" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E81" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CAMARO "6);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CAMARO ",6);</v>
       </c>
       <c r="H81"/>
     </row>
@@ -3985,12 +4155,12 @@
         <v>45</v>
       </c>
       <c r="D82" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E82" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CORVETTE "6);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CORVETTE ",6);</v>
       </c>
       <c r="H82"/>
     </row>
@@ -4005,12 +4175,12 @@
         <v>48</v>
       </c>
       <c r="D83" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E83" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"BERLINGO "7);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"BERLINGO ",7);</v>
       </c>
       <c r="H83"/>
     </row>
@@ -4025,12 +4195,12 @@
         <v>48</v>
       </c>
       <c r="D84" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E84" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C-ZERO "7);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C-ZERO ",7);</v>
       </c>
       <c r="H84"/>
     </row>
@@ -4045,12 +4215,12 @@
         <v>48</v>
       </c>
       <c r="D85" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E85" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C1 "7);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C1 ",7);</v>
       </c>
       <c r="H85"/>
     </row>
@@ -4065,12 +4235,12 @@
         <v>48</v>
       </c>
       <c r="D86" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E86" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C3 "7);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C3 ",7);</v>
       </c>
       <c r="H86"/>
     </row>
@@ -4085,12 +4255,12 @@
         <v>48</v>
       </c>
       <c r="D87" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E87" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C3 PICASSO "7);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C3 PICASSO ",7);</v>
       </c>
       <c r="H87"/>
     </row>
@@ -4105,12 +4275,12 @@
         <v>48</v>
       </c>
       <c r="D88" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E88" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C4 "7);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C4 ",7);</v>
       </c>
       <c r="H88"/>
     </row>
@@ -4125,12 +4295,12 @@
         <v>48</v>
       </c>
       <c r="D89" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E89" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C4 AIRCROSS "7);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C4 AIRCROSS ",7);</v>
       </c>
       <c r="H89"/>
     </row>
@@ -4145,12 +4315,12 @@
         <v>48</v>
       </c>
       <c r="D90" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E90" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C4 CACTUS "7);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C4 CACTUS ",7);</v>
       </c>
       <c r="H90"/>
     </row>
@@ -4165,12 +4335,12 @@
         <v>48</v>
       </c>
       <c r="D91" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E91" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C4 PICASSO "7);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C4 PICASSO ",7);</v>
       </c>
       <c r="H91"/>
     </row>
@@ -4185,12 +4355,12 @@
         <v>48</v>
       </c>
       <c r="D92" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E92" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C5 "7);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C5 ",7);</v>
       </c>
       <c r="H92"/>
     </row>
@@ -4205,12 +4375,12 @@
         <v>48</v>
       </c>
       <c r="D93" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E93" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C8 "7);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C8 ",7);</v>
       </c>
       <c r="H93"/>
     </row>
@@ -4225,12 +4395,12 @@
         <v>48</v>
       </c>
       <c r="D94" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E94" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"DS3 "7);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"DS3 ",7);</v>
       </c>
       <c r="H94"/>
     </row>
@@ -4245,12 +4415,12 @@
         <v>48</v>
       </c>
       <c r="D95" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E95" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"DS4 "7);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"DS4 ",7);</v>
       </c>
       <c r="H95"/>
     </row>
@@ -4265,12 +4435,12 @@
         <v>48</v>
       </c>
       <c r="D96" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E96" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"DS5 "7);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"DS5 ",7);</v>
       </c>
       <c r="H96"/>
     </row>
@@ -4285,12 +4455,12 @@
         <v>48</v>
       </c>
       <c r="D97" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E97" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"JUMPER "7);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"JUMPER ",7);</v>
       </c>
       <c r="H97"/>
     </row>
@@ -4305,12 +4475,12 @@
         <v>48</v>
       </c>
       <c r="D98" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E98" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"JUMPY "7);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"JUMPY ",7);</v>
       </c>
       <c r="H98"/>
     </row>
@@ -4325,12 +4495,12 @@
         <v>48</v>
       </c>
       <c r="D99" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E99" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"NEMO "7);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"NEMO ",7);</v>
       </c>
       <c r="H99"/>
     </row>
@@ -4345,12 +4515,12 @@
         <v>66</v>
       </c>
       <c r="D100" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E100" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"DOKKER "8);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"DOKKER ",8);</v>
       </c>
       <c r="H100"/>
     </row>
@@ -4365,12 +4535,12 @@
         <v>66</v>
       </c>
       <c r="D101" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E101" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"DUSTER "8);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"DUSTER ",8);</v>
       </c>
       <c r="H101"/>
     </row>
@@ -4385,12 +4555,12 @@
         <v>66</v>
       </c>
       <c r="D102" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E102" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"LODGY "8);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"LODGY ",8);</v>
       </c>
       <c r="H102"/>
     </row>
@@ -4405,12 +4575,12 @@
         <v>66</v>
       </c>
       <c r="D103" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E103" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"LOGAN "8);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"LOGAN ",8);</v>
       </c>
       <c r="H103"/>
     </row>
@@ -4425,12 +4595,12 @@
         <v>66</v>
       </c>
       <c r="D104" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E104" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SANDERO "8);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SANDERO ",8);</v>
       </c>
       <c r="H104"/>
     </row>
@@ -4445,12 +4615,12 @@
         <v>71</v>
       </c>
       <c r="D105" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E105" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"458"9);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"458",9);</v>
       </c>
       <c r="H105"/>
     </row>
@@ -4465,12 +4635,12 @@
         <v>71</v>
       </c>
       <c r="D106" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E106" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CALIFORNIA "9);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CALIFORNIA ",9);</v>
       </c>
       <c r="H106"/>
     </row>
@@ -4485,12 +4655,12 @@
         <v>71</v>
       </c>
       <c r="D107" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E107" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"F12 "9);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"F12 ",9);</v>
       </c>
       <c r="H107"/>
     </row>
@@ -4505,12 +4675,12 @@
         <v>71</v>
       </c>
       <c r="D108" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E108" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"FF "9);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"FF ",9);</v>
       </c>
       <c r="H108"/>
     </row>
@@ -4525,12 +4695,12 @@
         <v>71</v>
       </c>
       <c r="D109" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E109" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"LAFERRARI "9);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"LAFERRARI ",9);</v>
       </c>
       <c r="H109"/>
     </row>
@@ -4545,12 +4715,12 @@
         <v>76</v>
       </c>
       <c r="D110" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E110" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"500"10);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"500",10);</v>
       </c>
       <c r="H110"/>
     </row>
@@ -4565,12 +4735,12 @@
         <v>76</v>
       </c>
       <c r="D111" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E111" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"500L "10);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"500L ",10);</v>
       </c>
       <c r="H111"/>
     </row>
@@ -4585,12 +4755,12 @@
         <v>76</v>
       </c>
       <c r="D112" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E112" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"BRAVO "10);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"BRAVO ",10);</v>
       </c>
       <c r="H112"/>
     </row>
@@ -4605,12 +4775,12 @@
         <v>76</v>
       </c>
       <c r="D113" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E113" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"DOBLO "10);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"DOBLO ",10);</v>
       </c>
       <c r="H113"/>
     </row>
@@ -4625,12 +4795,12 @@
         <v>76</v>
       </c>
       <c r="D114" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E114" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"DUCATO "10);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"DUCATO ",10);</v>
       </c>
       <c r="H114"/>
     </row>
@@ -4645,12 +4815,12 @@
         <v>76</v>
       </c>
       <c r="D115" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E115" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"FIORINO "10);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"FIORINO ",10);</v>
       </c>
       <c r="H115"/>
     </row>
@@ -4665,12 +4835,12 @@
         <v>76</v>
       </c>
       <c r="D116" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E116" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"FREEMONT "10);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"FREEMONT ",10);</v>
       </c>
       <c r="H116"/>
     </row>
@@ -4685,12 +4855,12 @@
         <v>76</v>
       </c>
       <c r="D117" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E117" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PANDA "10);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PANDA ",10);</v>
       </c>
       <c r="H117"/>
     </row>
@@ -4705,12 +4875,12 @@
         <v>76</v>
       </c>
       <c r="D118" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E118" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PUNTO "10);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PUNTO ",10);</v>
       </c>
       <c r="H118"/>
     </row>
@@ -4725,12 +4895,12 @@
         <v>76</v>
       </c>
       <c r="D119" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E119" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SCUDO "10);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SCUDO ",10);</v>
       </c>
       <c r="H119"/>
     </row>
@@ -4745,12 +4915,12 @@
         <v>76</v>
       </c>
       <c r="D120" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E120" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SEDICI "10);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SEDICI ",10);</v>
       </c>
       <c r="H120"/>
     </row>
@@ -4765,12 +4935,12 @@
         <v>88</v>
       </c>
       <c r="D121" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E121" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"B-MAX "11);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"B-MAX ",11);</v>
       </c>
       <c r="H121"/>
     </row>
@@ -4785,12 +4955,12 @@
         <v>88</v>
       </c>
       <c r="D122" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E122" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C-MAX "11);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C-MAX ",11);</v>
       </c>
       <c r="H122"/>
     </row>
@@ -4805,12 +4975,12 @@
         <v>88</v>
       </c>
       <c r="D123" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E123" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ECOSPORT "11);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ECOSPORT ",11);</v>
       </c>
       <c r="H123"/>
     </row>
@@ -4825,12 +4995,12 @@
         <v>88</v>
       </c>
       <c r="D124" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E124" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"FIESTA "11);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"FIESTA ",11);</v>
       </c>
       <c r="H124"/>
     </row>
@@ -4845,12 +5015,12 @@
         <v>88</v>
       </c>
       <c r="D125" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E125" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"FOCUS "11);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"FOCUS ",11);</v>
       </c>
       <c r="H125"/>
     </row>
@@ -4865,12 +5035,12 @@
         <v>88</v>
       </c>
       <c r="D126" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E126" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"KA "11);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"KA ",11);</v>
       </c>
       <c r="H126"/>
     </row>
@@ -4885,12 +5055,12 @@
         <v>88</v>
       </c>
       <c r="D127" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E127" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"KUGA "11);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"KUGA ",11);</v>
       </c>
       <c r="H127"/>
     </row>
@@ -4905,12 +5075,12 @@
         <v>88</v>
       </c>
       <c r="D128" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E128" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MONDEO "11);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MONDEO ",11);</v>
       </c>
       <c r="H128"/>
     </row>
@@ -4925,12 +5095,12 @@
         <v>88</v>
       </c>
       <c r="D129" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E129" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"S-MAX "11);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"S-MAX ",11);</v>
       </c>
       <c r="H129"/>
     </row>
@@ -4945,12 +5115,12 @@
         <v>88</v>
       </c>
       <c r="D130" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E130" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"TOURNEO CONNECT "11);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"TOURNEO CONNECT ",11);</v>
       </c>
       <c r="H130"/>
     </row>
@@ -4965,12 +5135,12 @@
         <v>88</v>
       </c>
       <c r="D131" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E131" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"TOURNEO COURIER "11);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"TOURNEO COURIER ",11);</v>
       </c>
       <c r="H131"/>
     </row>
@@ -4985,12 +5155,12 @@
         <v>88</v>
       </c>
       <c r="D132" s="8">
-        <f t="shared" ref="D132:D195" si="4">VLOOKUP(C132,H:I,2,0)</f>
+        <f t="shared" ref="D132:D195" si="5">VLOOKUP(C132,H:I,2,0)</f>
         <v>11</v>
       </c>
       <c r="E132" s="8" t="str">
-        <f t="shared" ref="E132:E195" si="5">"INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"""&amp;B132&amp;""""&amp;D132&amp;");"</f>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"TOURNEO CUSTOM "11);</v>
+        <f t="shared" si="4"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"TOURNEO CUSTOM ",11);</v>
       </c>
       <c r="H132"/>
     </row>
@@ -5005,12 +5175,12 @@
         <v>88</v>
       </c>
       <c r="D133" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="E133" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"TRANSIT "11);</v>
+        <f t="shared" ref="E133:E196" si="6">"INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"""&amp;B133&amp;""","&amp;D133&amp;");"</f>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"TRANSIT ",11);</v>
       </c>
       <c r="H133"/>
     </row>
@@ -5025,12 +5195,12 @@
         <v>88</v>
       </c>
       <c r="D134" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="E134" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"TRANSIT CUSTOM "11);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"TRANSIT CUSTOM ",11);</v>
       </c>
       <c r="H134"/>
     </row>
@@ -5045,12 +5215,12 @@
         <v>103</v>
       </c>
       <c r="D135" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="E135" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ACCORD "12);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ACCORD ",12);</v>
       </c>
       <c r="H135"/>
     </row>
@@ -5065,12 +5235,12 @@
         <v>103</v>
       </c>
       <c r="D136" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="E136" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CIVIC "12);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CIVIC ",12);</v>
       </c>
       <c r="H136"/>
     </row>
@@ -5085,12 +5255,12 @@
         <v>103</v>
       </c>
       <c r="D137" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="E137" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CR-V "12);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CR-V ",12);</v>
       </c>
       <c r="H137"/>
     </row>
@@ -5105,12 +5275,12 @@
         <v>103</v>
       </c>
       <c r="D138" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="E138" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CR-Z "12);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CR-Z ",12);</v>
       </c>
       <c r="H138"/>
     </row>
@@ -5125,12 +5295,12 @@
         <v>103</v>
       </c>
       <c r="D139" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="E139" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"INSIGHT "12);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"INSIGHT ",12);</v>
       </c>
       <c r="H139"/>
     </row>
@@ -5145,12 +5315,12 @@
         <v>103</v>
       </c>
       <c r="D140" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="E140" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"JAZZ "12);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"JAZZ ",12);</v>
       </c>
       <c r="H140"/>
     </row>
@@ -5165,12 +5335,12 @@
         <v>110</v>
       </c>
       <c r="D141" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="E141" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GENESIS "13);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GENESIS ",13);</v>
       </c>
       <c r="H141"/>
     </row>
@@ -5185,12 +5355,12 @@
         <v>110</v>
       </c>
       <c r="D142" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="E142" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"I 10 "13);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"I 10 ",13);</v>
       </c>
       <c r="H142"/>
     </row>
@@ -5205,12 +5375,12 @@
         <v>110</v>
       </c>
       <c r="D143" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="E143" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"I 20 "13);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"I 20 ",13);</v>
       </c>
       <c r="H143"/>
     </row>
@@ -5225,12 +5395,12 @@
         <v>110</v>
       </c>
       <c r="D144" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="E144" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"I 30 "13);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"I 30 ",13);</v>
       </c>
       <c r="H144"/>
     </row>
@@ -5245,12 +5415,12 @@
         <v>110</v>
       </c>
       <c r="D145" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="E145" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"I 40 "13);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"I 40 ",13);</v>
       </c>
       <c r="H145"/>
     </row>
@@ -5265,12 +5435,12 @@
         <v>110</v>
       </c>
       <c r="D146" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="E146" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"IX 20 "13);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"IX 20 ",13);</v>
       </c>
       <c r="H146"/>
     </row>
@@ -5285,12 +5455,12 @@
         <v>110</v>
       </c>
       <c r="D147" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="E147" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"IX 35 "13);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"IX 35 ",13);</v>
       </c>
       <c r="H147"/>
     </row>
@@ -5305,12 +5475,12 @@
         <v>110</v>
       </c>
       <c r="D148" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="E148" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SANTA FE "13);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SANTA FE ",13);</v>
       </c>
       <c r="H148"/>
     </row>
@@ -5325,12 +5495,12 @@
         <v>110</v>
       </c>
       <c r="D149" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="E149" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"VELOSTER "13);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"VELOSTER ",13);</v>
       </c>
       <c r="H149"/>
     </row>
@@ -5345,12 +5515,12 @@
         <v>120</v>
       </c>
       <c r="D150" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="E150" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"Q50 "14);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"Q50 ",14);</v>
       </c>
       <c r="H150"/>
     </row>
@@ -5365,12 +5535,12 @@
         <v>120</v>
       </c>
       <c r="D151" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="E151" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"Q60 "14);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"Q60 ",14);</v>
       </c>
       <c r="H151"/>
     </row>
@@ -5385,12 +5555,12 @@
         <v>120</v>
       </c>
       <c r="D152" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="E152" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"Q70 "14);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"Q70 ",14);</v>
       </c>
       <c r="H152"/>
     </row>
@@ -5405,12 +5575,12 @@
         <v>120</v>
       </c>
       <c r="D153" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="E153" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"QX50 "14);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"QX50 ",14);</v>
       </c>
       <c r="H153"/>
     </row>
@@ -5425,12 +5595,12 @@
         <v>120</v>
       </c>
       <c r="D154" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="E154" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"QX70 "14);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"QX70 ",14);</v>
       </c>
       <c r="H154"/>
     </row>
@@ -5445,12 +5615,12 @@
         <v>126</v>
       </c>
       <c r="D155" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="E155" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"F-TYPE "15);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"F-TYPE ",15);</v>
       </c>
       <c r="H155"/>
     </row>
@@ -5465,12 +5635,12 @@
         <v>126</v>
       </c>
       <c r="D156" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="E156" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"XF "15);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"XF ",15);</v>
       </c>
       <c r="H156"/>
     </row>
@@ -5485,12 +5655,12 @@
         <v>126</v>
       </c>
       <c r="D157" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="E157" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"XJ "15);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"XJ ",15);</v>
       </c>
       <c r="H157"/>
     </row>
@@ -5505,12 +5675,12 @@
         <v>130</v>
       </c>
       <c r="D158" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="E158" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CHEROKEE "16);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CHEROKEE ",16);</v>
       </c>
       <c r="H158"/>
     </row>
@@ -5525,12 +5695,12 @@
         <v>130</v>
       </c>
       <c r="D159" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="E159" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"COMPASS "16);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"COMPASS ",16);</v>
       </c>
       <c r="H159"/>
     </row>
@@ -5545,12 +5715,12 @@
         <v>130</v>
       </c>
       <c r="D160" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="E160" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GRAND CHEROKEE "16);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GRAND CHEROKEE ",16);</v>
       </c>
       <c r="H160"/>
     </row>
@@ -5565,12 +5735,12 @@
         <v>130</v>
       </c>
       <c r="D161" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="E161" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"WRANGLER "16);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"WRANGLER ",16);</v>
       </c>
       <c r="H161"/>
     </row>
@@ -5585,12 +5755,12 @@
         <v>135</v>
       </c>
       <c r="D162" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="E162" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CARENS "17);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CARENS ",17);</v>
       </c>
       <c r="H162"/>
     </row>
@@ -5605,12 +5775,12 @@
         <v>135</v>
       </c>
       <c r="D163" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="E163" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CEED "17);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CEED ",17);</v>
       </c>
       <c r="H163"/>
     </row>
@@ -5625,12 +5795,12 @@
         <v>135</v>
       </c>
       <c r="D164" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="E164" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"OPTIMA "17);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"OPTIMA ",17);</v>
       </c>
       <c r="H164"/>
     </row>
@@ -5645,12 +5815,12 @@
         <v>135</v>
       </c>
       <c r="D165" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="E165" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PICANTO "17);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PICANTO ",17);</v>
       </c>
       <c r="H165"/>
     </row>
@@ -5665,12 +5835,12 @@
         <v>135</v>
       </c>
       <c r="D166" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="E166" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"RIO "17);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"RIO ",17);</v>
       </c>
       <c r="H166"/>
     </row>
@@ -5685,12 +5855,12 @@
         <v>135</v>
       </c>
       <c r="D167" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="E167" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SORENTO "17);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SORENTO ",17);</v>
       </c>
       <c r="H167"/>
     </row>
@@ -5705,12 +5875,12 @@
         <v>135</v>
       </c>
       <c r="D168" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="E168" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SOUL "17);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SOUL ",17);</v>
       </c>
       <c r="H168"/>
     </row>
@@ -5725,12 +5895,12 @@
         <v>135</v>
       </c>
       <c r="D169" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="E169" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SPORTAGE "17);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SPORTAGE ",17);</v>
       </c>
       <c r="H169"/>
     </row>
@@ -5745,12 +5915,12 @@
         <v>135</v>
       </c>
       <c r="D170" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="E170" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"VENGA "17);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"VENGA ",17);</v>
       </c>
       <c r="H170"/>
     </row>
@@ -5765,12 +5935,12 @@
         <v>145</v>
       </c>
       <c r="D171" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="E171" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"NIVA "18);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"NIVA ",18);</v>
       </c>
       <c r="H171"/>
     </row>
@@ -5785,12 +5955,12 @@
         <v>147</v>
       </c>
       <c r="D172" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="E172" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"AVENTADOR "19);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"AVENTADOR ",19);</v>
       </c>
       <c r="H172"/>
     </row>
@@ -5805,12 +5975,12 @@
         <v>147</v>
       </c>
       <c r="D173" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="E173" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GALLARDO "19);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GALLARDO ",19);</v>
       </c>
       <c r="H173"/>
     </row>
@@ -5825,12 +5995,12 @@
         <v>147</v>
       </c>
       <c r="D174" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="E174" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"HURACAN "19);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"HURACAN ",19);</v>
       </c>
       <c r="H174"/>
     </row>
@@ -5845,12 +6015,12 @@
         <v>151</v>
       </c>
       <c r="D175" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="E175" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"DELTA "20);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"DELTA ",20);</v>
       </c>
       <c r="H175"/>
     </row>
@@ -5865,12 +6035,12 @@
         <v>151</v>
       </c>
       <c r="D176" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="E176" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"FLAVIA "20);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"FLAVIA ",20);</v>
       </c>
       <c r="H176"/>
     </row>
@@ -5885,12 +6055,12 @@
         <v>151</v>
       </c>
       <c r="D177" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="E177" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MUSA "20);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MUSA ",20);</v>
       </c>
       <c r="H177"/>
     </row>
@@ -5905,12 +6075,12 @@
         <v>151</v>
       </c>
       <c r="D178" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="E178" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"THEMA "20);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"THEMA ",20);</v>
       </c>
       <c r="H178"/>
     </row>
@@ -5925,12 +6095,12 @@
         <v>151</v>
       </c>
       <c r="D179" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="E179" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"VOYAGER "20);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"VOYAGER ",20);</v>
       </c>
       <c r="H179"/>
     </row>
@@ -5945,12 +6115,12 @@
         <v>151</v>
       </c>
       <c r="D180" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="E180" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"YPSILON "20);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"YPSILON ",20);</v>
       </c>
       <c r="H180"/>
     </row>
@@ -5965,12 +6135,12 @@
         <v>158</v>
       </c>
       <c r="D181" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="E181" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"DISCOVERY "21);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"DISCOVERY ",21);</v>
       </c>
       <c r="H181"/>
     </row>
@@ -5985,12 +6155,12 @@
         <v>158</v>
       </c>
       <c r="D182" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="E182" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"DISCOVERY SPORT "21);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"DISCOVERY SPORT ",21);</v>
       </c>
       <c r="H182"/>
     </row>
@@ -6005,12 +6175,12 @@
         <v>158</v>
       </c>
       <c r="D183" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="E183" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"FREELANDER "21);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"FREELANDER ",21);</v>
       </c>
       <c r="H183"/>
     </row>
@@ -6025,12 +6195,12 @@
         <v>158</v>
       </c>
       <c r="D184" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="E184" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"RANGE ROVER "21);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"RANGE ROVER ",21);</v>
       </c>
       <c r="H184"/>
     </row>
@@ -6045,12 +6215,12 @@
         <v>158</v>
       </c>
       <c r="D185" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="E185" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"RANGE ROVER EVOQUE "21);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"RANGE ROVER EVOQUE ",21);</v>
       </c>
       <c r="H185"/>
     </row>
@@ -6065,12 +6235,12 @@
         <v>158</v>
       </c>
       <c r="D186" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="E186" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"RANGE ROVER SPORT "21);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"RANGE ROVER SPORT ",21);</v>
       </c>
       <c r="H186"/>
     </row>
@@ -6085,12 +6255,12 @@
         <v>165</v>
       </c>
       <c r="D187" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="E187" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CT "22);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CT ",22);</v>
       </c>
       <c r="H187"/>
     </row>
@@ -6105,12 +6275,12 @@
         <v>165</v>
       </c>
       <c r="D188" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="E188" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GS "22);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GS ",22);</v>
       </c>
       <c r="H188"/>
     </row>
@@ -6125,12 +6295,12 @@
         <v>165</v>
       </c>
       <c r="D189" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="E189" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"IS "22);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"IS ",22);</v>
       </c>
       <c r="H189"/>
     </row>
@@ -6145,12 +6315,12 @@
         <v>165</v>
       </c>
       <c r="D190" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="E190" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"LFA "22);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"LFA ",22);</v>
       </c>
       <c r="H190"/>
     </row>
@@ -6165,12 +6335,12 @@
         <v>165</v>
       </c>
       <c r="D191" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="E191" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"LS "22);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"LS ",22);</v>
       </c>
       <c r="H191"/>
     </row>
@@ -6185,12 +6355,12 @@
         <v>165</v>
       </c>
       <c r="D192" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="E192" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"NX "22);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"NX ",22);</v>
       </c>
       <c r="H192"/>
     </row>
@@ -6205,12 +6375,12 @@
         <v>165</v>
       </c>
       <c r="D193" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="E193" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"RC "22);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"RC ",22);</v>
       </c>
       <c r="H193"/>
     </row>
@@ -6225,12 +6395,12 @@
         <v>165</v>
       </c>
       <c r="D194" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="E194" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"RX "22);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"RX ",22);</v>
       </c>
       <c r="H194"/>
     </row>
@@ -6245,12 +6415,12 @@
         <v>174</v>
       </c>
       <c r="D195" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="E195" s="8" t="str">
-        <f t="shared" si="5"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GHIBLI "23);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GHIBLI ",23);</v>
       </c>
       <c r="H195"/>
     </row>
@@ -6265,12 +6435,12 @@
         <v>174</v>
       </c>
       <c r="D196" s="8">
-        <f t="shared" ref="D196:D259" si="6">VLOOKUP(C196,H:I,2,0)</f>
+        <f t="shared" ref="D196:D259" si="7">VLOOKUP(C196,H:I,2,0)</f>
         <v>23</v>
       </c>
       <c r="E196" s="8" t="str">
-        <f t="shared" ref="E196:E259" si="7">"INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"""&amp;B196&amp;""""&amp;D196&amp;");"</f>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GRANCABRIO "23);</v>
+        <f t="shared" si="6"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GRANCABRIO ",23);</v>
       </c>
       <c r="H196"/>
     </row>
@@ -6285,12 +6455,12 @@
         <v>174</v>
       </c>
       <c r="D197" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="E197" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GRANTURISMO "23);</v>
+        <f t="shared" ref="E197:E260" si="8">"INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"""&amp;B197&amp;""","&amp;D197&amp;");"</f>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GRANTURISMO ",23);</v>
       </c>
       <c r="H197"/>
     </row>
@@ -6305,12 +6475,12 @@
         <v>174</v>
       </c>
       <c r="D198" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="E198" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"QUATTROPORTE "23);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"QUATTROPORTE ",23);</v>
       </c>
       <c r="H198"/>
     </row>
@@ -6325,12 +6495,12 @@
         <v>178</v>
       </c>
       <c r="D199" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="E199" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"2"24);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"2",24);</v>
       </c>
       <c r="H199"/>
     </row>
@@ -6345,12 +6515,12 @@
         <v>178</v>
       </c>
       <c r="D200" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="E200" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"3"24);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"3",24);</v>
       </c>
       <c r="H200"/>
     </row>
@@ -6365,12 +6535,12 @@
         <v>178</v>
       </c>
       <c r="D201" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="E201" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"5"24);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"5",24);</v>
       </c>
       <c r="H201"/>
     </row>
@@ -6385,12 +6555,12 @@
         <v>178</v>
       </c>
       <c r="D202" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="E202" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"6"24);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"6",24);</v>
       </c>
       <c r="H202"/>
     </row>
@@ -6405,12 +6575,12 @@
         <v>178</v>
       </c>
       <c r="D203" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="E203" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CX-5 "24);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CX-5 ",24);</v>
       </c>
       <c r="H203"/>
     </row>
@@ -6425,12 +6595,12 @@
         <v>178</v>
       </c>
       <c r="D204" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="E204" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MX-5 "24);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MX-5 ",24);</v>
       </c>
       <c r="H204"/>
     </row>
@@ -6445,12 +6615,12 @@
         <v>182</v>
       </c>
       <c r="D205" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E205" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A 160 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A 160 ",25);</v>
       </c>
       <c r="H205"/>
     </row>
@@ -6465,12 +6635,12 @@
         <v>182</v>
       </c>
       <c r="D206" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E206" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A 180 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A 180 ",25);</v>
       </c>
       <c r="H206"/>
     </row>
@@ -6485,12 +6655,12 @@
         <v>182</v>
       </c>
       <c r="D207" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E207" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A 200 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A 200 ",25);</v>
       </c>
       <c r="H207"/>
     </row>
@@ -6505,12 +6675,12 @@
         <v>182</v>
       </c>
       <c r="D208" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E208" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A 220 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A 220 ",25);</v>
       </c>
       <c r="H208"/>
     </row>
@@ -6525,12 +6695,12 @@
         <v>182</v>
       </c>
       <c r="D209" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E209" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A 250 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A 250 ",25);</v>
       </c>
       <c r="H209"/>
     </row>
@@ -6545,12 +6715,12 @@
         <v>182</v>
       </c>
       <c r="D210" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E210" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A 45 AMG "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"A 45 AMG ",25);</v>
       </c>
       <c r="H210"/>
     </row>
@@ -6565,12 +6735,12 @@
         <v>182</v>
       </c>
       <c r="D211" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E211" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"AMG GT "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"AMG GT ",25);</v>
       </c>
       <c r="H211"/>
     </row>
@@ -6585,12 +6755,12 @@
         <v>182</v>
       </c>
       <c r="D212" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E212" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"AMG GT S "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"AMG GT S ",25);</v>
       </c>
       <c r="H212"/>
     </row>
@@ -6605,12 +6775,12 @@
         <v>182</v>
       </c>
       <c r="D213" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E213" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"B 160 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"B 160 ",25);</v>
       </c>
       <c r="H213"/>
     </row>
@@ -6625,12 +6795,12 @@
         <v>182</v>
       </c>
       <c r="D214" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E214" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"B 180 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"B 180 ",25);</v>
       </c>
       <c r="H214"/>
     </row>
@@ -6645,12 +6815,12 @@
         <v>182</v>
       </c>
       <c r="D215" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E215" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"B 200 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"B 200 ",25);</v>
       </c>
       <c r="H215"/>
     </row>
@@ -6665,12 +6835,12 @@
         <v>182</v>
       </c>
       <c r="D216" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E216" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"B 220 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"B 220 ",25);</v>
       </c>
       <c r="H216"/>
     </row>
@@ -6685,12 +6855,12 @@
         <v>182</v>
       </c>
       <c r="D217" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E217" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"B 250 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"B 250 ",25);</v>
       </c>
       <c r="H217"/>
     </row>
@@ -6705,12 +6875,12 @@
         <v>182</v>
       </c>
       <c r="D218" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E218" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"B ED "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"B ED ",25);</v>
       </c>
       <c r="H218"/>
     </row>
@@ -6725,12 +6895,12 @@
         <v>182</v>
       </c>
       <c r="D219" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E219" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C 180 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C 180 ",25);</v>
       </c>
       <c r="H219"/>
     </row>
@@ -6745,12 +6915,12 @@
         <v>182</v>
       </c>
       <c r="D220" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E220" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C 200 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C 200 ",25);</v>
       </c>
       <c r="H220"/>
     </row>
@@ -6765,12 +6935,12 @@
         <v>182</v>
       </c>
       <c r="D221" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E221" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C 220 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C 220 ",25);</v>
       </c>
       <c r="H221"/>
     </row>
@@ -6785,12 +6955,12 @@
         <v>182</v>
       </c>
       <c r="D222" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E222" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C 250 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C 250 ",25);</v>
       </c>
       <c r="H222"/>
     </row>
@@ -6805,12 +6975,12 @@
         <v>182</v>
       </c>
       <c r="D223" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E223" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C 300 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C 300 ",25);</v>
       </c>
       <c r="H223"/>
     </row>
@@ -6825,12 +6995,12 @@
         <v>182</v>
       </c>
       <c r="D224" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E224" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C 350 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C 350 ",25);</v>
       </c>
       <c r="H224"/>
     </row>
@@ -6845,12 +7015,12 @@
         <v>182</v>
       </c>
       <c r="D225" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E225" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C 400 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C 400 ",25);</v>
       </c>
       <c r="H225"/>
     </row>
@@ -6865,12 +7035,12 @@
         <v>182</v>
       </c>
       <c r="D226" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E226" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C 63 AMG "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C 63 AMG ",25);</v>
       </c>
       <c r="H226"/>
     </row>
@@ -6885,12 +7055,12 @@
         <v>182</v>
       </c>
       <c r="D227" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E227" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C 63 S-AMG "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"C 63 S-AMG ",25);</v>
       </c>
       <c r="H227"/>
     </row>
@@ -6905,12 +7075,12 @@
         <v>182</v>
       </c>
       <c r="D228" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E228" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CITAN "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CITAN ",25);</v>
       </c>
       <c r="H228"/>
     </row>
@@ -6925,12 +7095,12 @@
         <v>182</v>
       </c>
       <c r="D229" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E229" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CL 63 AMG "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CL 63 AMG ",25);</v>
       </c>
       <c r="H229"/>
     </row>
@@ -6945,12 +7115,12 @@
         <v>182</v>
       </c>
       <c r="D230" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E230" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLA 180 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLA 180 ",25);</v>
       </c>
       <c r="H230"/>
     </row>
@@ -6965,12 +7135,12 @@
         <v>182</v>
       </c>
       <c r="D231" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E231" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLA 200 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLA 200 ",25);</v>
       </c>
       <c r="H231"/>
     </row>
@@ -6985,12 +7155,12 @@
         <v>182</v>
       </c>
       <c r="D232" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E232" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLA 220 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLA 220 ",25);</v>
       </c>
       <c r="H232"/>
     </row>
@@ -7005,12 +7175,12 @@
         <v>182</v>
       </c>
       <c r="D233" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E233" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLA 250 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLA 250 ",25);</v>
       </c>
       <c r="H233"/>
     </row>
@@ -7025,12 +7195,12 @@
         <v>182</v>
       </c>
       <c r="D234" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E234" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLA 45 AMG "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLA 45 AMG ",25);</v>
       </c>
       <c r="H234"/>
     </row>
@@ -7045,12 +7215,12 @@
         <v>182</v>
       </c>
       <c r="D235" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E235" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLASSE V "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLASSE V ",25);</v>
       </c>
       <c r="H235"/>
     </row>
@@ -7065,12 +7235,12 @@
         <v>182</v>
       </c>
       <c r="D236" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E236" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLS 220 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLS 220 ",25);</v>
       </c>
       <c r="H236"/>
     </row>
@@ -7085,12 +7255,12 @@
         <v>182</v>
       </c>
       <c r="D237" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E237" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLS 250 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLS 250 ",25);</v>
       </c>
       <c r="H237"/>
     </row>
@@ -7105,12 +7275,12 @@
         <v>182</v>
       </c>
       <c r="D238" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E238" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLS 350 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLS 350 ",25);</v>
       </c>
       <c r="H238"/>
     </row>
@@ -7125,12 +7295,12 @@
         <v>182</v>
       </c>
       <c r="D239" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E239" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLS 400 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLS 400 ",25);</v>
       </c>
       <c r="H239"/>
     </row>
@@ -7145,12 +7315,12 @@
         <v>182</v>
       </c>
       <c r="D240" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E240" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLS 500 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLS 500 ",25);</v>
       </c>
       <c r="H240"/>
     </row>
@@ -7165,12 +7335,12 @@
         <v>182</v>
       </c>
       <c r="D241" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E241" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLS 63 AMG "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLS 63 AMG ",25);</v>
       </c>
       <c r="H241"/>
     </row>
@@ -7185,12 +7355,12 @@
         <v>182</v>
       </c>
       <c r="D242" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E242" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"E 200 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"E 200 ",25);</v>
       </c>
       <c r="H242"/>
     </row>
@@ -7205,12 +7375,12 @@
         <v>182</v>
       </c>
       <c r="D243" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E243" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"E 220 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"E 220 ",25);</v>
       </c>
       <c r="H243"/>
     </row>
@@ -7225,12 +7395,12 @@
         <v>182</v>
       </c>
       <c r="D244" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E244" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"E 250 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"E 250 ",25);</v>
       </c>
       <c r="H244"/>
     </row>
@@ -7245,12 +7415,12 @@
         <v>182</v>
       </c>
       <c r="D245" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E245" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"E 300 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"E 300 ",25);</v>
       </c>
       <c r="H245"/>
     </row>
@@ -7265,12 +7435,12 @@
         <v>182</v>
       </c>
       <c r="D246" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E246" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"E 320 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"E 320 ",25);</v>
       </c>
       <c r="H246"/>
     </row>
@@ -7285,12 +7455,12 @@
         <v>182</v>
       </c>
       <c r="D247" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E247" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"E 350 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"E 350 ",25);</v>
       </c>
       <c r="H247"/>
     </row>
@@ -7305,12 +7475,12 @@
         <v>182</v>
       </c>
       <c r="D248" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E248" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"E 400 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"E 400 ",25);</v>
       </c>
       <c r="H248"/>
     </row>
@@ -7325,12 +7495,12 @@
         <v>182</v>
       </c>
       <c r="D249" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E249" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"E 500 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"E 500 ",25);</v>
       </c>
       <c r="H249"/>
     </row>
@@ -7345,12 +7515,12 @@
         <v>182</v>
       </c>
       <c r="D250" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E250" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"E 63 AMG "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"E 63 AMG ",25);</v>
       </c>
       <c r="H250"/>
     </row>
@@ -7365,12 +7535,12 @@
         <v>182</v>
       </c>
       <c r="D251" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E251" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"G 350 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"G 350 ",25);</v>
       </c>
       <c r="H251"/>
     </row>
@@ -7385,12 +7555,12 @@
         <v>182</v>
       </c>
       <c r="D252" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E252" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"G 500 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"G 500 ",25);</v>
       </c>
       <c r="H252"/>
     </row>
@@ -7405,12 +7575,12 @@
         <v>182</v>
       </c>
       <c r="D253" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E253" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"G 63 AMG "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"G 63 AMG ",25);</v>
       </c>
       <c r="H253"/>
     </row>
@@ -7425,12 +7595,12 @@
         <v>182</v>
       </c>
       <c r="D254" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E254" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"G 65 AMG "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"G 65 AMG ",25);</v>
       </c>
       <c r="H254"/>
     </row>
@@ -7445,12 +7615,12 @@
         <v>182</v>
       </c>
       <c r="D255" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E255" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GL 350 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GL 350 ",25);</v>
       </c>
       <c r="H255"/>
     </row>
@@ -7465,12 +7635,12 @@
         <v>182</v>
       </c>
       <c r="D256" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E256" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GL 400 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GL 400 ",25);</v>
       </c>
       <c r="H256"/>
     </row>
@@ -7485,12 +7655,12 @@
         <v>182</v>
       </c>
       <c r="D257" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E257" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GL 500 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GL 500 ",25);</v>
       </c>
       <c r="H257"/>
     </row>
@@ -7505,12 +7675,12 @@
         <v>182</v>
       </c>
       <c r="D258" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E258" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GL 63 AMG "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GL 63 AMG ",25);</v>
       </c>
       <c r="H258"/>
     </row>
@@ -7525,12 +7695,12 @@
         <v>182</v>
       </c>
       <c r="D259" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="E259" s="8" t="str">
-        <f t="shared" si="7"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GLA 180 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GLA 180 ",25);</v>
       </c>
       <c r="H259"/>
     </row>
@@ -7545,12 +7715,12 @@
         <v>182</v>
       </c>
       <c r="D260" s="8">
-        <f t="shared" ref="D260:D323" si="8">VLOOKUP(C260,H:I,2,0)</f>
+        <f t="shared" ref="D260:D323" si="9">VLOOKUP(C260,H:I,2,0)</f>
         <v>25</v>
       </c>
       <c r="E260" s="8" t="str">
-        <f t="shared" ref="E260:E323" si="9">"INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"""&amp;B260&amp;""""&amp;D260&amp;");"</f>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GLA 200 "25);</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GLA 200 ",25);</v>
       </c>
       <c r="H260"/>
     </row>
@@ -7565,12 +7735,12 @@
         <v>182</v>
       </c>
       <c r="D261" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E261" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GLA 220 "25);</v>
+        <f t="shared" ref="E261:E324" si="10">"INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"""&amp;B261&amp;""","&amp;D261&amp;");"</f>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GLA 220 ",25);</v>
       </c>
       <c r="H261"/>
     </row>
@@ -7585,12 +7755,12 @@
         <v>182</v>
       </c>
       <c r="D262" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E262" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GLA 250 "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GLA 250 ",25);</v>
       </c>
       <c r="H262"/>
     </row>
@@ -7605,12 +7775,12 @@
         <v>182</v>
       </c>
       <c r="D263" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E263" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GLA 45 AMG "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GLA 45 AMG ",25);</v>
       </c>
       <c r="H263"/>
     </row>
@@ -7625,12 +7795,12 @@
         <v>182</v>
       </c>
       <c r="D264" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E264" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ML 250 "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ML 250 ",25);</v>
       </c>
       <c r="H264"/>
     </row>
@@ -7645,12 +7815,12 @@
         <v>182</v>
       </c>
       <c r="D265" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E265" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ML 350 "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ML 350 ",25);</v>
       </c>
       <c r="H265"/>
     </row>
@@ -7665,12 +7835,12 @@
         <v>182</v>
       </c>
       <c r="D266" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E266" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ML 400 "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ML 400 ",25);</v>
       </c>
       <c r="H266"/>
     </row>
@@ -7685,12 +7855,12 @@
         <v>182</v>
       </c>
       <c r="D267" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E267" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ML 500 "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ML 500 ",25);</v>
       </c>
       <c r="H267"/>
     </row>
@@ -7705,12 +7875,12 @@
         <v>182</v>
       </c>
       <c r="D268" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E268" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ML 63 AMG "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ML 63 AMG ",25);</v>
       </c>
       <c r="H268"/>
     </row>
@@ -7725,12 +7895,12 @@
         <v>182</v>
       </c>
       <c r="D269" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E269" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"S 300 "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"S 300 ",25);</v>
       </c>
       <c r="H269"/>
     </row>
@@ -7745,12 +7915,12 @@
         <v>182</v>
       </c>
       <c r="D270" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E270" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"S 350 "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"S 350 ",25);</v>
       </c>
       <c r="H270"/>
     </row>
@@ -7765,12 +7935,12 @@
         <v>182</v>
       </c>
       <c r="D271" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E271" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"S 400 "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"S 400 ",25);</v>
       </c>
       <c r="H271"/>
     </row>
@@ -7785,12 +7955,12 @@
         <v>182</v>
       </c>
       <c r="D272" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E272" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"S 500 "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"S 500 ",25);</v>
       </c>
       <c r="H272"/>
     </row>
@@ -7805,12 +7975,12 @@
         <v>182</v>
       </c>
       <c r="D273" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E273" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"S 600 "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"S 600 ",25);</v>
       </c>
       <c r="H273"/>
     </row>
@@ -7825,12 +7995,12 @@
         <v>182</v>
       </c>
       <c r="D274" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E274" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"S 63 AMG "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"S 63 AMG ",25);</v>
       </c>
       <c r="H274"/>
     </row>
@@ -7845,12 +8015,12 @@
         <v>182</v>
       </c>
       <c r="D275" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E275" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"S 65 AMG "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"S 65 AMG ",25);</v>
       </c>
       <c r="H275"/>
     </row>
@@ -7865,12 +8035,12 @@
         <v>182</v>
       </c>
       <c r="D276" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E276" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SL 350 "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SL 350 ",25);</v>
       </c>
       <c r="H276"/>
     </row>
@@ -7885,12 +8055,12 @@
         <v>182</v>
       </c>
       <c r="D277" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E277" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SL 400 "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SL 400 ",25);</v>
       </c>
       <c r="H277"/>
     </row>
@@ -7905,12 +8075,12 @@
         <v>182</v>
       </c>
       <c r="D278" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E278" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SL 500 "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SL 500 ",25);</v>
       </c>
       <c r="H278"/>
     </row>
@@ -7925,12 +8095,12 @@
         <v>182</v>
       </c>
       <c r="D279" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E279" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SL 63 AMG "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SL 63 AMG ",25);</v>
       </c>
       <c r="H279"/>
     </row>
@@ -7945,12 +8115,12 @@
         <v>182</v>
       </c>
       <c r="D280" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E280" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SL 65 AMG "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SL 65 AMG ",25);</v>
       </c>
       <c r="H280"/>
     </row>
@@ -7965,12 +8135,12 @@
         <v>182</v>
       </c>
       <c r="D281" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E281" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SLK 200 "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SLK 200 ",25);</v>
       </c>
       <c r="H281"/>
     </row>
@@ -7985,12 +8155,12 @@
         <v>182</v>
       </c>
       <c r="D282" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E282" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SLK 250 "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SLK 250 ",25);</v>
       </c>
       <c r="H282"/>
     </row>
@@ -8005,12 +8175,12 @@
         <v>182</v>
       </c>
       <c r="D283" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E283" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SLK 350 "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SLK 350 ",25);</v>
       </c>
       <c r="H283"/>
     </row>
@@ -8025,12 +8195,12 @@
         <v>182</v>
       </c>
       <c r="D284" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E284" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SLK 55 AMG "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SLK 55 AMG ",25);</v>
       </c>
       <c r="H284"/>
     </row>
@@ -8045,12 +8215,12 @@
         <v>182</v>
       </c>
       <c r="D285" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E285" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SLS AMG GT S "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SLS AMG GT S ",25);</v>
       </c>
       <c r="H285"/>
     </row>
@@ -8065,12 +8235,12 @@
         <v>182</v>
       </c>
       <c r="D286" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E286" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SPRINTER "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SPRINTER ",25);</v>
       </c>
       <c r="H286"/>
     </row>
@@ -8085,12 +8255,12 @@
         <v>182</v>
       </c>
       <c r="D287" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="E287" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"VITO "25);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"VITO ",25);</v>
       </c>
       <c r="H287"/>
     </row>
@@ -8105,12 +8275,12 @@
         <v>266</v>
       </c>
       <c r="D288" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="E288" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CABRIO "26);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CABRIO ",26);</v>
       </c>
       <c r="H288"/>
     </row>
@@ -8125,12 +8295,12 @@
         <v>266</v>
       </c>
       <c r="D289" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="E289" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"COUNTRYMAN "26);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"COUNTRYMAN ",26);</v>
       </c>
       <c r="H289"/>
     </row>
@@ -8145,12 +8315,12 @@
         <v>266</v>
       </c>
       <c r="D290" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="E290" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"COUPE "26);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"COUPE ",26);</v>
       </c>
       <c r="H290"/>
     </row>
@@ -8165,12 +8335,12 @@
         <v>266</v>
       </c>
       <c r="D291" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="E291" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MINI "26);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MINI ",26);</v>
       </c>
       <c r="H291"/>
     </row>
@@ -8185,12 +8355,12 @@
         <v>266</v>
       </c>
       <c r="D292" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="E292" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PACEMAN "26);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PACEMAN ",26);</v>
       </c>
       <c r="H292"/>
     </row>
@@ -8205,12 +8375,12 @@
         <v>266</v>
       </c>
       <c r="D293" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="E293" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ROADSTER "26);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ROADSTER ",26);</v>
       </c>
       <c r="H293"/>
     </row>
@@ -8225,12 +8395,12 @@
         <v>272</v>
       </c>
       <c r="D294" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="E294" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ASX "27);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ASX ",27);</v>
       </c>
       <c r="H294"/>
     </row>
@@ -8245,12 +8415,12 @@
         <v>272</v>
       </c>
       <c r="D295" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="E295" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"I-MIEV "27);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"I-MIEV ",27);</v>
       </c>
       <c r="H295"/>
     </row>
@@ -8265,12 +8435,12 @@
         <v>272</v>
       </c>
       <c r="D296" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="E296" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"OUTLANDER "27);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"OUTLANDER ",27);</v>
       </c>
       <c r="H296"/>
     </row>
@@ -8285,12 +8455,12 @@
         <v>272</v>
       </c>
       <c r="D297" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="E297" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PAJERO "27);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PAJERO ",27);</v>
       </c>
       <c r="H297"/>
     </row>
@@ -8305,12 +8475,12 @@
         <v>272</v>
       </c>
       <c r="D298" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="E298" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SPACE STAR "27);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SPACE STAR ",27);</v>
       </c>
       <c r="H298"/>
     </row>
@@ -8325,12 +8495,12 @@
         <v>278</v>
       </c>
       <c r="D299" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="E299" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"370Z "28);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"370Z ",28);</v>
       </c>
       <c r="H299"/>
     </row>
@@ -8345,12 +8515,12 @@
         <v>278</v>
       </c>
       <c r="D300" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="E300" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GT-R "28);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GT-R ",28);</v>
       </c>
       <c r="H300"/>
     </row>
@@ -8365,12 +8535,12 @@
         <v>278</v>
       </c>
       <c r="D301" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="E301" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"JUKE "28);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"JUKE ",28);</v>
       </c>
       <c r="H301"/>
     </row>
@@ -8385,12 +8555,12 @@
         <v>278</v>
       </c>
       <c r="D302" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="E302" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"LEAF "28);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"LEAF ",28);</v>
       </c>
       <c r="H302"/>
     </row>
@@ -8405,12 +8575,12 @@
         <v>278</v>
       </c>
       <c r="D303" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="E303" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MICRA "28);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MICRA ",28);</v>
       </c>
       <c r="H303"/>
     </row>
@@ -8425,12 +8595,12 @@
         <v>278</v>
       </c>
       <c r="D304" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="E304" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MURANO "28);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MURANO ",28);</v>
       </c>
       <c r="H304"/>
     </row>
@@ -8445,12 +8615,12 @@
         <v>278</v>
       </c>
       <c r="D305" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="E305" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"NOTE "28);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"NOTE ",28);</v>
       </c>
       <c r="H305"/>
     </row>
@@ -8465,12 +8635,12 @@
         <v>278</v>
       </c>
       <c r="D306" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="E306" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"NV200 "28);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"NV200 ",28);</v>
       </c>
       <c r="H306"/>
     </row>
@@ -8485,12 +8655,12 @@
         <v>278</v>
       </c>
       <c r="D307" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="E307" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"NV300 "28);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"NV300 ",28);</v>
       </c>
       <c r="H307"/>
     </row>
@@ -8505,12 +8675,12 @@
         <v>278</v>
       </c>
       <c r="D308" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="E308" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"NV400 "28);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"NV400 ",28);</v>
       </c>
       <c r="H308"/>
     </row>
@@ -8525,12 +8695,12 @@
         <v>278</v>
       </c>
       <c r="D309" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="E309" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PULSAR "28);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PULSAR ",28);</v>
       </c>
       <c r="H309"/>
     </row>
@@ -8545,12 +8715,12 @@
         <v>278</v>
       </c>
       <c r="D310" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="E310" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"QASHQAI "28);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"QASHQAI ",28);</v>
       </c>
       <c r="H310"/>
     </row>
@@ -8565,12 +8735,12 @@
         <v>278</v>
       </c>
       <c r="D311" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="E311" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"X-TRAIL "28);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"X-TRAIL ",28);</v>
       </c>
       <c r="H311"/>
     </row>
@@ -8585,12 +8755,12 @@
         <v>292</v>
       </c>
       <c r="D312" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="E312" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ADAM "29);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ADAM ",29);</v>
       </c>
       <c r="H312"/>
     </row>
@@ -8605,12 +8775,12 @@
         <v>292</v>
       </c>
       <c r="D313" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="E313" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"AGILA "29);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"AGILA ",29);</v>
       </c>
       <c r="H313"/>
     </row>
@@ -8625,12 +8795,12 @@
         <v>292</v>
       </c>
       <c r="D314" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="E314" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"AMPERA "29);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"AMPERA ",29);</v>
       </c>
       <c r="H314"/>
     </row>
@@ -8645,12 +8815,12 @@
         <v>292</v>
       </c>
       <c r="D315" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="E315" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ANTARA "29);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ANTARA ",29);</v>
       </c>
       <c r="H315"/>
     </row>
@@ -8665,12 +8835,12 @@
         <v>292</v>
       </c>
       <c r="D316" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="E316" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ASTRA "29);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ASTRA ",29);</v>
       </c>
       <c r="H316"/>
     </row>
@@ -8685,12 +8855,12 @@
         <v>292</v>
       </c>
       <c r="D317" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="E317" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CASCADA "29);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CASCADA ",29);</v>
       </c>
       <c r="H317"/>
     </row>
@@ -8705,12 +8875,12 @@
         <v>292</v>
       </c>
       <c r="D318" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="E318" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"COMBO "29);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"COMBO ",29);</v>
       </c>
       <c r="H318"/>
     </row>
@@ -8725,12 +8895,12 @@
         <v>292</v>
       </c>
       <c r="D319" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="E319" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CORSA "29);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CORSA ",29);</v>
       </c>
       <c r="H319"/>
     </row>
@@ -8745,12 +8915,12 @@
         <v>292</v>
       </c>
       <c r="D320" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="E320" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"INSIGNIA "29);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"INSIGNIA ",29);</v>
       </c>
       <c r="H320"/>
     </row>
@@ -8765,12 +8935,12 @@
         <v>292</v>
       </c>
       <c r="D321" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="E321" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MERIVA "29);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MERIVA ",29);</v>
       </c>
       <c r="H321"/>
     </row>
@@ -8785,12 +8955,12 @@
         <v>292</v>
       </c>
       <c r="D322" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="E322" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MOKKA "29);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MOKKA ",29);</v>
       </c>
       <c r="H322"/>
     </row>
@@ -8805,12 +8975,12 @@
         <v>292</v>
       </c>
       <c r="D323" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="E323" s="8" t="str">
-        <f t="shared" si="9"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MOVANO "29);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MOVANO ",29);</v>
       </c>
       <c r="H323"/>
     </row>
@@ -8825,12 +8995,12 @@
         <v>292</v>
       </c>
       <c r="D324" s="8">
-        <f t="shared" ref="D324:D387" si="10">VLOOKUP(C324,H:I,2,0)</f>
+        <f t="shared" ref="D324:D387" si="11">VLOOKUP(C324,H:I,2,0)</f>
         <v>29</v>
       </c>
       <c r="E324" s="8" t="str">
-        <f t="shared" ref="E324:E387" si="11">"INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"""&amp;B324&amp;""""&amp;D324&amp;");"</f>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"VIVARO "29);</v>
+        <f t="shared" si="10"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"VIVARO ",29);</v>
       </c>
       <c r="H324"/>
     </row>
@@ -8845,12 +9015,12 @@
         <v>292</v>
       </c>
       <c r="D325" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
       <c r="E325" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ZAFIRA "29);</v>
+        <f t="shared" ref="E325:E388" si="12">"INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"""&amp;B325&amp;""","&amp;D325&amp;");"</f>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ZAFIRA ",29);</v>
       </c>
       <c r="H325"/>
     </row>
@@ -8865,12 +9035,12 @@
         <v>306</v>
       </c>
       <c r="D326" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="E326" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"108"30);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"108",30);</v>
       </c>
       <c r="H326"/>
     </row>
@@ -8885,12 +9055,12 @@
         <v>306</v>
       </c>
       <c r="D327" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="E327" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"2008"30);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"2008",30);</v>
       </c>
       <c r="H327"/>
     </row>
@@ -8905,12 +9075,12 @@
         <v>306</v>
       </c>
       <c r="D328" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="E328" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"207"30);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"207",30);</v>
       </c>
       <c r="H328"/>
     </row>
@@ -8925,12 +9095,12 @@
         <v>306</v>
       </c>
       <c r="D329" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="E329" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"208"30);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"208",30);</v>
       </c>
       <c r="H329"/>
     </row>
@@ -8945,12 +9115,12 @@
         <v>306</v>
       </c>
       <c r="D330" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="E330" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"3008"30);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"3008",30);</v>
       </c>
       <c r="H330"/>
     </row>
@@ -8965,12 +9135,12 @@
         <v>306</v>
       </c>
       <c r="D331" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="E331" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"308"30);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"308",30);</v>
       </c>
       <c r="H331"/>
     </row>
@@ -8985,12 +9155,12 @@
         <v>306</v>
       </c>
       <c r="D332" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="E332" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"4008"30);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"4008",30);</v>
       </c>
       <c r="H332"/>
     </row>
@@ -9005,12 +9175,12 @@
         <v>306</v>
       </c>
       <c r="D333" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="E333" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"5008"30);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"5008",30);</v>
       </c>
       <c r="H333"/>
     </row>
@@ -9025,12 +9195,12 @@
         <v>306</v>
       </c>
       <c r="D334" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="E334" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"508"30);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"508",30);</v>
       </c>
       <c r="H334"/>
     </row>
@@ -9045,12 +9215,12 @@
         <v>306</v>
       </c>
       <c r="D335" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="E335" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"BIPPER "30);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"BIPPER ",30);</v>
       </c>
       <c r="H335"/>
     </row>
@@ -9065,12 +9235,12 @@
         <v>306</v>
       </c>
       <c r="D336" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="E336" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"BOXER "30);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"BOXER ",30);</v>
       </c>
       <c r="H336"/>
     </row>
@@ -9085,12 +9255,12 @@
         <v>306</v>
       </c>
       <c r="D337" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="E337" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"EXPERT "30);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"EXPERT ",30);</v>
       </c>
       <c r="H337"/>
     </row>
@@ -9105,12 +9275,12 @@
         <v>306</v>
       </c>
       <c r="D338" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="E338" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ION "30);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ION ",30);</v>
       </c>
       <c r="H338"/>
     </row>
@@ -9125,12 +9295,12 @@
         <v>306</v>
       </c>
       <c r="D339" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="E339" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PARTNER "30);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PARTNER ",30);</v>
       </c>
       <c r="H339"/>
     </row>
@@ -9145,12 +9315,12 @@
         <v>306</v>
       </c>
       <c r="D340" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="E340" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"RCZ "30);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"RCZ ",30);</v>
       </c>
       <c r="H340"/>
     </row>
@@ -9165,12 +9335,12 @@
         <v>313</v>
       </c>
       <c r="D341" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="E341" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"911"31);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"911",31);</v>
       </c>
       <c r="H341"/>
     </row>
@@ -9185,12 +9355,12 @@
         <v>313</v>
       </c>
       <c r="D342" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="E342" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"918"31);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"918",31);</v>
       </c>
       <c r="H342"/>
     </row>
@@ -9205,12 +9375,12 @@
         <v>313</v>
       </c>
       <c r="D343" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="E343" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"BOXSTER "31);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"BOXSTER ",31);</v>
       </c>
       <c r="H343"/>
     </row>
@@ -9225,12 +9395,12 @@
         <v>313</v>
       </c>
       <c r="D344" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="E344" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CAYENNE "31);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CAYENNE ",31);</v>
       </c>
       <c r="H344"/>
     </row>
@@ -9245,12 +9415,12 @@
         <v>313</v>
       </c>
       <c r="D345" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="E345" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CAYMAN "31);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CAYMAN ",31);</v>
       </c>
       <c r="H345"/>
     </row>
@@ -9265,12 +9435,12 @@
         <v>313</v>
       </c>
       <c r="D346" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="E346" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MACAN "31);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MACAN ",31);</v>
       </c>
       <c r="H346"/>
     </row>
@@ -9285,12 +9455,12 @@
         <v>313</v>
       </c>
       <c r="D347" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="E347" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PANAMERA "31);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PANAMERA ",31);</v>
       </c>
       <c r="H347"/>
     </row>
@@ -9305,12 +9475,12 @@
         <v>320</v>
       </c>
       <c r="D348" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="E348" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CAPTUR "32);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CAPTUR ",32);</v>
       </c>
       <c r="H348"/>
     </row>
@@ -9325,12 +9495,12 @@
         <v>320</v>
       </c>
       <c r="D349" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="E349" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLIO "32);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CLIO ",32);</v>
       </c>
       <c r="H349"/>
     </row>
@@ -9345,12 +9515,12 @@
         <v>320</v>
       </c>
       <c r="D350" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="E350" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ESPACE "32);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ESPACE ",32);</v>
       </c>
       <c r="H350"/>
     </row>
@@ -9365,12 +9535,12 @@
         <v>320</v>
       </c>
       <c r="D351" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="E351" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"KANGOO "32);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"KANGOO ",32);</v>
       </c>
       <c r="H351"/>
     </row>
@@ -9385,12 +9555,12 @@
         <v>320</v>
       </c>
       <c r="D352" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="E352" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"KOLEOS "32);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"KOLEOS ",32);</v>
       </c>
       <c r="H352"/>
     </row>
@@ -9405,12 +9575,12 @@
         <v>320</v>
       </c>
       <c r="D353" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="E353" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"LAGUNA "32);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"LAGUNA ",32);</v>
       </c>
       <c r="H353"/>
     </row>
@@ -9425,12 +9595,12 @@
         <v>320</v>
       </c>
       <c r="D354" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="E354" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"LATITUDE "32);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"LATITUDE ",32);</v>
       </c>
       <c r="H354"/>
     </row>
@@ -9445,12 +9615,12 @@
         <v>320</v>
       </c>
       <c r="D355" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="E355" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MASTER "32);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MASTER ",32);</v>
       </c>
       <c r="H355"/>
     </row>
@@ -9465,12 +9635,12 @@
         <v>320</v>
       </c>
       <c r="D356" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="E356" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MEGANE "32);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MEGANE ",32);</v>
       </c>
       <c r="H356"/>
     </row>
@@ -9485,12 +9655,12 @@
         <v>320</v>
       </c>
       <c r="D357" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="E357" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SCENIC "32);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SCENIC ",32);</v>
       </c>
       <c r="H357"/>
     </row>
@@ -9505,12 +9675,12 @@
         <v>320</v>
       </c>
       <c r="D358" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="E358" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"TRAFIC "32);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"TRAFIC ",32);</v>
       </c>
       <c r="H358"/>
     </row>
@@ -9525,12 +9695,12 @@
         <v>320</v>
       </c>
       <c r="D359" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="E359" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"TWINGO "32);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"TWINGO ",32);</v>
       </c>
       <c r="H359"/>
     </row>
@@ -9545,12 +9715,12 @@
         <v>320</v>
       </c>
       <c r="D360" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
       <c r="E360" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ZOE "32);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ZOE ",32);</v>
       </c>
       <c r="H360"/>
     </row>
@@ -9565,12 +9735,12 @@
         <v>334</v>
       </c>
       <c r="D361" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
       <c r="E361" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GHOST "33);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GHOST ",33);</v>
       </c>
       <c r="H361"/>
     </row>
@@ -9585,12 +9755,12 @@
         <v>334</v>
       </c>
       <c r="D362" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
       <c r="E362" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PHANTOM "33);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PHANTOM ",33);</v>
       </c>
       <c r="H362"/>
     </row>
@@ -9605,12 +9775,12 @@
         <v>334</v>
       </c>
       <c r="D363" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>33</v>
       </c>
       <c r="E363" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"WRAITH "33);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"WRAITH ",33);</v>
       </c>
       <c r="H363"/>
     </row>
@@ -9625,12 +9795,12 @@
         <v>338</v>
       </c>
       <c r="D364" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
       <c r="E364" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ALHAMBRA "34);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ALHAMBRA ",34);</v>
       </c>
       <c r="H364"/>
     </row>
@@ -9645,12 +9815,12 @@
         <v>338</v>
       </c>
       <c r="D365" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
       <c r="E365" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ALTEA "34);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ALTEA ",34);</v>
       </c>
       <c r="H365"/>
     </row>
@@ -9665,12 +9835,12 @@
         <v>338</v>
       </c>
       <c r="D366" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
       <c r="E366" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"IBIZA "34);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"IBIZA ",34);</v>
       </c>
       <c r="H366"/>
     </row>
@@ -9685,12 +9855,12 @@
         <v>338</v>
       </c>
       <c r="D367" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
       <c r="E367" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"LEON "34);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"LEON ",34);</v>
       </c>
       <c r="H367"/>
     </row>
@@ -9705,12 +9875,12 @@
         <v>338</v>
       </c>
       <c r="D368" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
       <c r="E368" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MII "34);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MII ",34);</v>
       </c>
       <c r="H368"/>
     </row>
@@ -9725,12 +9895,12 @@
         <v>338</v>
       </c>
       <c r="D369" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
       <c r="E369" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"TOLEDO "34);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"TOLEDO ",34);</v>
       </c>
       <c r="H369"/>
     </row>
@@ -9745,12 +9915,12 @@
         <v>345</v>
       </c>
       <c r="D370" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="E370" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CITIGO "35);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CITIGO ",35);</v>
       </c>
       <c r="H370"/>
     </row>
@@ -9765,12 +9935,12 @@
         <v>345</v>
       </c>
       <c r="D371" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="E371" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"FABIA "35);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"FABIA ",35);</v>
       </c>
       <c r="H371"/>
     </row>
@@ -9785,12 +9955,12 @@
         <v>345</v>
       </c>
       <c r="D372" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="E372" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"OCTAVIA "35);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"OCTAVIA ",35);</v>
       </c>
       <c r="H372"/>
     </row>
@@ -9805,12 +9975,12 @@
         <v>345</v>
       </c>
       <c r="D373" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="E373" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"RAPID "35);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"RAPID ",35);</v>
       </c>
       <c r="H373"/>
     </row>
@@ -9825,12 +9995,12 @@
         <v>345</v>
       </c>
       <c r="D374" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="E374" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ROOMSTER "35);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"ROOMSTER ",35);</v>
       </c>
       <c r="H374"/>
     </row>
@@ -9845,12 +10015,12 @@
         <v>345</v>
       </c>
       <c r="D375" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="E375" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SUPERB "35);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SUPERB ",35);</v>
       </c>
       <c r="H375"/>
     </row>
@@ -9865,12 +10035,12 @@
         <v>345</v>
       </c>
       <c r="D376" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="E376" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"YETI "35);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"YETI ",35);</v>
       </c>
       <c r="H376"/>
     </row>
@@ -9885,12 +10055,12 @@
         <v>353</v>
       </c>
       <c r="D377" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
       <c r="E377" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"FORFOUR "36);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"FORFOUR ",36);</v>
       </c>
       <c r="H377"/>
     </row>
@@ -9905,12 +10075,12 @@
         <v>353</v>
       </c>
       <c r="D378" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>36</v>
       </c>
       <c r="E378" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"FORTWO "36);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"FORTWO ",36);</v>
       </c>
       <c r="H378"/>
     </row>
@@ -9925,12 +10095,12 @@
         <v>356</v>
       </c>
       <c r="D379" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>37</v>
       </c>
       <c r="E379" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"KORANDO "37);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"KORANDO ",37);</v>
       </c>
       <c r="H379"/>
     </row>
@@ -9945,12 +10115,12 @@
         <v>356</v>
       </c>
       <c r="D380" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>37</v>
       </c>
       <c r="E380" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"REXTON "37);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"REXTON ",37);</v>
       </c>
       <c r="H380"/>
     </row>
@@ -9965,12 +10135,12 @@
         <v>356</v>
       </c>
       <c r="D381" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>37</v>
       </c>
       <c r="E381" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"RODIUS "37);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"RODIUS ",37);</v>
       </c>
       <c r="H381"/>
     </row>
@@ -9985,12 +10155,12 @@
         <v>360</v>
       </c>
       <c r="D382" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>38</v>
       </c>
       <c r="E382" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"BRZ "38);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"BRZ ",38);</v>
       </c>
       <c r="H382"/>
     </row>
@@ -10005,12 +10175,12 @@
         <v>360</v>
       </c>
       <c r="D383" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>38</v>
       </c>
       <c r="E383" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"FORESTER "38);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"FORESTER ",38);</v>
       </c>
       <c r="H383"/>
     </row>
@@ -10025,12 +10195,12 @@
         <v>360</v>
       </c>
       <c r="D384" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>38</v>
       </c>
       <c r="E384" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"WRX "38);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"WRX ",38);</v>
       </c>
       <c r="H384"/>
     </row>
@@ -10045,12 +10215,12 @@
         <v>360</v>
       </c>
       <c r="D385" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>38</v>
       </c>
       <c r="E385" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"XV "38);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"XV ",38);</v>
       </c>
       <c r="H385"/>
     </row>
@@ -10065,12 +10235,12 @@
         <v>365</v>
       </c>
       <c r="D386" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>39</v>
       </c>
       <c r="E386" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CELERIO "39);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CELERIO ",39);</v>
       </c>
       <c r="H386"/>
     </row>
@@ -10085,12 +10255,12 @@
         <v>365</v>
       </c>
       <c r="D387" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>39</v>
       </c>
       <c r="E387" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"JIMNY "39);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"JIMNY ",39);</v>
       </c>
       <c r="H387"/>
     </row>
@@ -10105,12 +10275,12 @@
         <v>365</v>
       </c>
       <c r="D388" s="8">
-        <f t="shared" ref="D388:D427" si="12">VLOOKUP(C388,H:I,2,0)</f>
+        <f t="shared" ref="D388:D427" si="13">VLOOKUP(C388,H:I,2,0)</f>
         <v>39</v>
       </c>
       <c r="E388" s="8" t="str">
-        <f t="shared" ref="E388:E427" si="13">"INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"""&amp;B388&amp;""""&amp;D388&amp;");"</f>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SWIFT "39);</v>
+        <f t="shared" si="12"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SWIFT ",39);</v>
       </c>
       <c r="H388"/>
     </row>
@@ -10125,12 +10295,12 @@
         <v>365</v>
       </c>
       <c r="D389" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
       <c r="E389" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SX4 "39);</v>
+        <f t="shared" ref="E389:E427" si="14">"INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"""&amp;B389&amp;""","&amp;D389&amp;");"</f>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SX4 ",39);</v>
       </c>
       <c r="H389"/>
     </row>
@@ -10145,12 +10315,12 @@
         <v>365</v>
       </c>
       <c r="D390" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
       <c r="E390" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"VITARA "39);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"VITARA ",39);</v>
       </c>
       <c r="H390"/>
     </row>
@@ -10165,12 +10335,12 @@
         <v>371</v>
       </c>
       <c r="D391" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="E391" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MODEL S "40);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"MODEL S ",40);</v>
       </c>
       <c r="H391"/>
     </row>
@@ -10185,12 +10355,12 @@
         <v>373</v>
       </c>
       <c r="D392" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="E392" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"AURIS "41);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"AURIS ",41);</v>
       </c>
       <c r="H392"/>
     </row>
@@ -10205,12 +10375,12 @@
         <v>373</v>
       </c>
       <c r="D393" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="E393" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"AVENSIS "41);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"AVENSIS ",41);</v>
       </c>
       <c r="H393"/>
     </row>
@@ -10225,12 +10395,12 @@
         <v>373</v>
       </c>
       <c r="D394" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="E394" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"AYGO "41);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"AYGO ",41);</v>
       </c>
       <c r="H394"/>
     </row>
@@ -10245,12 +10415,12 @@
         <v>373</v>
       </c>
       <c r="D395" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="E395" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GT86 "41);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GT86 ",41);</v>
       </c>
       <c r="H395"/>
     </row>
@@ -10265,12 +10435,12 @@
         <v>373</v>
       </c>
       <c r="D396" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="E396" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"IQ "41);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"IQ ",41);</v>
       </c>
       <c r="H396"/>
     </row>
@@ -10285,12 +10455,12 @@
         <v>373</v>
       </c>
       <c r="D397" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="E397" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"LAND CRUISER "41);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"LAND CRUISER ",41);</v>
       </c>
       <c r="H397"/>
     </row>
@@ -10305,12 +10475,12 @@
         <v>373</v>
       </c>
       <c r="D398" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="E398" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PRIUS "41);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PRIUS ",41);</v>
       </c>
       <c r="H398"/>
     </row>
@@ -10325,12 +10495,12 @@
         <v>373</v>
       </c>
       <c r="D399" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="E399" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PRIUS+ "41);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PRIUS+ ",41);</v>
       </c>
       <c r="H399"/>
     </row>
@@ -10345,12 +10515,12 @@
         <v>373</v>
       </c>
       <c r="D400" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="E400" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"RAV4 "41);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"RAV4 ",41);</v>
       </c>
       <c r="H400"/>
     </row>
@@ -10365,12 +10535,12 @@
         <v>373</v>
       </c>
       <c r="D401" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="E401" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"VERSO "41);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"VERSO ",41);</v>
       </c>
       <c r="H401"/>
     </row>
@@ -10385,12 +10555,12 @@
         <v>373</v>
       </c>
       <c r="D402" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="E402" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"VERSO S "41);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"VERSO S ",41);</v>
       </c>
       <c r="H402"/>
     </row>
@@ -10405,12 +10575,12 @@
         <v>373</v>
       </c>
       <c r="D403" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="E403" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"YARIS "41);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"YARIS ",41);</v>
       </c>
       <c r="H403"/>
     </row>
@@ -10425,12 +10595,12 @@
         <v>386</v>
       </c>
       <c r="D404" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="E404" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CC "42);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CC ",42);</v>
       </c>
       <c r="H404"/>
     </row>
@@ -10445,12 +10615,12 @@
         <v>386</v>
       </c>
       <c r="D405" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="E405" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"COCCINELLE "42);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"COCCINELLE ",42);</v>
       </c>
       <c r="H405"/>
     </row>
@@ -10465,12 +10635,12 @@
         <v>386</v>
       </c>
       <c r="D406" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="E406" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CRAFTER "42);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"CRAFTER ",42);</v>
       </c>
       <c r="H406"/>
     </row>
@@ -10485,12 +10655,12 @@
         <v>386</v>
       </c>
       <c r="D407" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="E407" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"EOS "42);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"EOS ",42);</v>
       </c>
       <c r="H407"/>
     </row>
@@ -10505,12 +10675,12 @@
         <v>386</v>
       </c>
       <c r="D408" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="E408" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GOLF "42);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GOLF ",42);</v>
       </c>
       <c r="H408"/>
     </row>
@@ -10525,12 +10695,12 @@
         <v>386</v>
       </c>
       <c r="D409" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="E409" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GOLF SPORTSVAN "42);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"GOLF SPORTSVAN ",42);</v>
       </c>
       <c r="H409"/>
     </row>
@@ -10545,12 +10715,12 @@
         <v>386</v>
       </c>
       <c r="D410" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="E410" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"JETTA "42);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"JETTA ",42);</v>
       </c>
       <c r="H410"/>
     </row>
@@ -10565,12 +10735,12 @@
         <v>386</v>
       </c>
       <c r="D411" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="E411" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PASSAT "42);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PASSAT ",42);</v>
       </c>
       <c r="H411"/>
     </row>
@@ -10585,12 +10755,12 @@
         <v>386</v>
       </c>
       <c r="D412" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="E412" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PHAETON "42);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"PHAETON ",42);</v>
       </c>
       <c r="H412"/>
     </row>
@@ -10605,12 +10775,12 @@
         <v>386</v>
       </c>
       <c r="D413" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="E413" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"POLO "42);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"POLO ",42);</v>
       </c>
       <c r="H413"/>
     </row>
@@ -10625,12 +10795,12 @@
         <v>386</v>
       </c>
       <c r="D414" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="E414" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SCIROCCO "42);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SCIROCCO ",42);</v>
       </c>
       <c r="H414"/>
     </row>
@@ -10645,12 +10815,12 @@
         <v>386</v>
       </c>
       <c r="D415" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="E415" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SHARAN "42);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"SHARAN ",42);</v>
       </c>
       <c r="H415"/>
     </row>
@@ -10665,12 +10835,12 @@
         <v>386</v>
       </c>
       <c r="D416" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="E416" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"TIGUAN "42);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"TIGUAN ",42);</v>
       </c>
       <c r="H416"/>
     </row>
@@ -10685,12 +10855,12 @@
         <v>386</v>
       </c>
       <c r="D417" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="E417" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"TOUAREG "42);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"TOUAREG ",42);</v>
       </c>
       <c r="H417"/>
     </row>
@@ -10705,12 +10875,12 @@
         <v>386</v>
       </c>
       <c r="D418" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="E418" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"TOURAN "42);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"TOURAN ",42);</v>
       </c>
       <c r="H418"/>
     </row>
@@ -10725,12 +10895,12 @@
         <v>386</v>
       </c>
       <c r="D419" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="E419" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"UP! "42);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"UP! ",42);</v>
       </c>
       <c r="H419"/>
     </row>
@@ -10745,12 +10915,12 @@
         <v>403</v>
       </c>
       <c r="D420" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
       <c r="E420" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"S60 "43);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"S60 ",43);</v>
       </c>
       <c r="H420"/>
     </row>
@@ -10765,12 +10935,12 @@
         <v>403</v>
       </c>
       <c r="D421" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
       <c r="E421" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"S80 "43);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"S80 ",43);</v>
       </c>
       <c r="H421"/>
     </row>
@@ -10785,12 +10955,12 @@
         <v>403</v>
       </c>
       <c r="D422" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
       <c r="E422" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"V40 "43);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"V40 ",43);</v>
       </c>
       <c r="H422"/>
     </row>
@@ -10805,12 +10975,12 @@
         <v>403</v>
       </c>
       <c r="D423" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
       <c r="E423" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"V60 "43);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"V60 ",43);</v>
       </c>
       <c r="H423"/>
     </row>
@@ -10825,12 +10995,12 @@
         <v>403</v>
       </c>
       <c r="D424" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
       <c r="E424" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"V70 "43);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"V70 ",43);</v>
       </c>
       <c r="H424"/>
     </row>
@@ -10845,12 +11015,12 @@
         <v>403</v>
       </c>
       <c r="D425" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
       <c r="E425" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"XC60 "43);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"XC60 ",43);</v>
       </c>
       <c r="H425"/>
     </row>
@@ -10865,12 +11035,12 @@
         <v>403</v>
       </c>
       <c r="D426" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
       <c r="E426" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"XC70 "43);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"XC70 ",43);</v>
       </c>
       <c r="H426"/>
     </row>
@@ -10885,12 +11055,12 @@
         <v>403</v>
       </c>
       <c r="D427" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
       <c r="E427" s="8" t="str">
-        <f t="shared" si="13"/>
-        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"XC90 "43);</v>
+        <f t="shared" si="14"/>
+        <v>INSERT INTO `modeles`(`idModele`, `nomModele`, `idMarque`) VALUES (NULL,"XC90 ",43);</v>
       </c>
     </row>
   </sheetData>
